--- a/data/league_data/germany/18/germany_std.xlsx
+++ b/data/league_data/germany/18/germany_std.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/germany/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04499E34-3CB7-3047-8A72-DBEE90538D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B6D8B-456C-0849-9F93-48AF8E05DCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -580,9 +580,6 @@
     <t>Mathew Leckie</t>
   </si>
   <si>
-    <t>Rafinha</t>
-  </si>
-  <si>
     <t>Alfreð Finnbogason</t>
   </si>
   <si>
@@ -1550,12 +1547,15 @@
   </si>
   <si>
     <t>Alexander Meier</t>
+  </si>
+  <si>
+    <t>Rafinha de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2413,11 +2413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14815,7 +14815,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>186</v>
+        <v>509</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>75</v>
@@ -14898,7 +14898,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>49</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>31</v>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>43</v>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>21</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>29</v>
@@ -15313,7 +15313,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>31</v>
@@ -15396,7 +15396,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>21</v>
@@ -15479,7 +15479,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>78</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>33</v>
@@ -15645,7 +15645,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>45</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>37</v>
@@ -15811,7 +15811,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>78</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>21</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>56</v>
@@ -16060,7 +16060,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>29</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>29</v>
@@ -16226,7 +16226,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>45</v>
@@ -16309,7 +16309,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>43</v>
@@ -16392,7 +16392,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>31</v>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>78</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>33</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>75</v>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>47</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>37</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>75</v>
@@ -16973,7 +16973,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>29</v>
@@ -17056,7 +17056,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>43</v>
@@ -17139,7 +17139,7 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>75</v>
@@ -17222,7 +17222,7 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>31</v>
@@ -17305,7 +17305,7 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>23</v>
@@ -17388,7 +17388,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>73</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>41</v>
@@ -17554,7 +17554,7 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>45</v>
@@ -17637,7 +17637,7 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>21</v>
@@ -17720,7 +17720,7 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>47</v>
@@ -17803,7 +17803,7 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>75</v>
@@ -17886,7 +17886,7 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>33</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>23</v>
@@ -18052,7 +18052,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>75</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>45</v>
@@ -18218,7 +18218,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>27</v>
@@ -18301,7 +18301,7 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>35</v>
@@ -18384,7 +18384,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>29</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>75</v>
@@ -18550,7 +18550,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>21</v>
@@ -18633,7 +18633,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>75</v>
@@ -18716,7 +18716,7 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>41</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>27</v>
@@ -18882,7 +18882,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>49</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>29</v>
@@ -19048,7 +19048,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>75</v>
@@ -19131,7 +19131,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>47</v>
@@ -19214,7 +19214,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>73</v>
@@ -19297,7 +19297,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>73</v>
@@ -19380,7 +19380,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>21</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>41</v>
@@ -19546,7 +19546,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>49</v>
@@ -19629,7 +19629,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>78</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>45</v>
@@ -19795,7 +19795,7 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>35</v>
@@ -19878,7 +19878,7 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>47</v>
@@ -19961,7 +19961,7 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>43</v>
@@ -20044,7 +20044,7 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>73</v>
@@ -20127,7 +20127,7 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>37</v>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>43</v>
@@ -20293,7 +20293,7 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>78</v>
@@ -20376,7 +20376,7 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>43</v>
@@ -20459,7 +20459,7 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>29</v>
@@ -20542,7 +20542,7 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>73</v>
@@ -20625,7 +20625,7 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>56</v>
@@ -20708,7 +20708,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>27</v>
@@ -20791,7 +20791,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>49</v>
@@ -20874,7 +20874,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>78</v>
@@ -20957,7 +20957,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>43</v>
@@ -21040,7 +21040,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>43</v>
@@ -21123,7 +21123,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>45</v>
@@ -21206,7 +21206,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>78</v>
@@ -21289,7 +21289,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>33</v>
@@ -21372,7 +21372,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>75</v>
@@ -21455,7 +21455,7 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>23</v>
@@ -21538,7 +21538,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>41</v>
@@ -21621,7 +21621,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>23</v>
@@ -21704,7 +21704,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>43</v>
@@ -21787,7 +21787,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>47</v>
@@ -21870,7 +21870,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>41</v>
@@ -21953,7 +21953,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>21</v>
@@ -22036,7 +22036,7 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>41</v>
@@ -22119,7 +22119,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>41</v>
@@ -22202,7 +22202,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>31</v>
@@ -22285,7 +22285,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>25</v>
@@ -22368,7 +22368,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>41</v>
@@ -22451,7 +22451,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>75</v>
@@ -22534,7 +22534,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>73</v>
@@ -22617,7 +22617,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>43</v>
@@ -22700,7 +22700,7 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>78</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>41</v>
@@ -22866,7 +22866,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>29</v>
@@ -22949,7 +22949,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>21</v>
@@ -23032,7 +23032,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>29</v>
@@ -23115,7 +23115,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>75</v>
@@ -23198,7 +23198,7 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>27</v>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>45</v>
@@ -23364,7 +23364,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>41</v>
@@ -23447,7 +23447,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>31</v>
@@ -23530,7 +23530,7 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>35</v>
@@ -23613,7 +23613,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>27</v>
@@ -23696,7 +23696,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>37</v>
@@ -23779,7 +23779,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>25</v>
@@ -23862,7 +23862,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>49</v>
@@ -23945,7 +23945,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>73</v>
@@ -24028,7 +24028,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>35</v>
@@ -24111,7 +24111,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>31</v>
@@ -24194,7 +24194,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>27</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>31</v>
@@ -24360,7 +24360,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>25</v>
@@ -24443,7 +24443,7 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>41</v>
@@ -24526,7 +24526,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>33</v>
@@ -24609,7 +24609,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>73</v>
@@ -24692,7 +24692,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>35</v>
@@ -24775,7 +24775,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>23</v>
@@ -24858,7 +24858,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>35</v>
@@ -24941,7 +24941,7 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>21</v>
@@ -25024,7 +25024,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>29</v>
@@ -25107,7 +25107,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>37</v>
@@ -25190,7 +25190,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>23</v>
@@ -25273,7 +25273,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>29</v>
@@ -25356,7 +25356,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>47</v>
@@ -25439,7 +25439,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>78</v>
@@ -25522,7 +25522,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>35</v>
@@ -25605,7 +25605,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>35</v>
@@ -25688,7 +25688,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>23</v>
@@ -25771,7 +25771,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>31</v>
@@ -25854,7 +25854,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>29</v>
@@ -25937,7 +25937,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>41</v>
@@ -26020,7 +26020,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>33</v>
@@ -26103,7 +26103,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>29</v>
@@ -26186,7 +26186,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>27</v>
@@ -26269,7 +26269,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>41</v>
@@ -26352,7 +26352,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>23</v>
@@ -26435,7 +26435,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>78</v>
@@ -26518,7 +26518,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>27</v>
@@ -26601,7 +26601,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>73</v>
@@ -26684,7 +26684,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>21</v>
@@ -26767,7 +26767,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>75</v>
@@ -26850,7 +26850,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>23</v>
@@ -26933,7 +26933,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>21</v>
@@ -27016,7 +27016,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>27</v>
@@ -27099,7 +27099,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>29</v>
@@ -27182,7 +27182,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>56</v>
@@ -27265,7 +27265,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>27</v>
@@ -27348,7 +27348,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>73</v>
@@ -27431,7 +27431,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>41</v>
@@ -27514,7 +27514,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>29</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>41</v>
@@ -27680,7 +27680,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>33</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>78</v>
@@ -27846,7 +27846,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>37</v>
@@ -27929,7 +27929,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>29</v>
@@ -28012,7 +28012,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>73</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>25</v>
@@ -28178,7 +28178,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>35</v>
@@ -28261,7 +28261,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>37</v>
@@ -28344,7 +28344,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>56</v>
@@ -28427,7 +28427,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>31</v>
@@ -28510,7 +28510,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>21</v>
@@ -28593,7 +28593,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>47</v>
@@ -28676,7 +28676,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>78</v>
@@ -28759,7 +28759,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>35</v>
@@ -28842,7 +28842,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>23</v>
@@ -28925,7 +28925,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>25</v>
@@ -29008,7 +29008,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>75</v>
@@ -29091,7 +29091,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>35</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>56</v>
@@ -29257,7 +29257,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>45</v>
@@ -29340,7 +29340,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>49</v>
@@ -29423,7 +29423,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>49</v>
@@ -29506,7 +29506,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>27</v>
@@ -29589,7 +29589,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>41</v>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>27</v>
@@ -29755,7 +29755,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>78</v>
@@ -29838,7 +29838,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>47</v>
@@ -29921,7 +29921,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>23</v>
@@ -30004,7 +30004,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>41</v>
@@ -30087,7 +30087,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>29</v>
@@ -30170,7 +30170,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>49</v>
@@ -30253,7 +30253,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>56</v>
@@ -30336,7 +30336,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>47</v>
@@ -30419,7 +30419,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>37</v>
@@ -30502,7 +30502,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>45</v>
@@ -30585,7 +30585,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>23</v>
@@ -30668,7 +30668,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>73</v>
@@ -30751,7 +30751,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>49</v>
@@ -30834,7 +30834,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>43</v>
@@ -30917,7 +30917,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>29</v>
@@ -31000,7 +31000,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>21</v>
@@ -31083,7 +31083,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>41</v>
@@ -31166,7 +31166,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>23</v>
@@ -31249,7 +31249,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>27</v>
@@ -31332,7 +31332,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>25</v>
@@ -31415,7 +31415,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>25</v>
@@ -31498,7 +31498,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>56</v>
@@ -31581,7 +31581,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>25</v>
@@ -31664,7 +31664,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>25</v>
@@ -31747,7 +31747,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>56</v>
@@ -31830,7 +31830,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>78</v>
@@ -31913,7 +31913,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>29</v>
@@ -31996,7 +31996,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>31</v>
@@ -32079,7 +32079,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>25</v>
@@ -32162,7 +32162,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>31</v>
@@ -32245,7 +32245,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>47</v>
@@ -32328,7 +32328,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>23</v>
@@ -32411,7 +32411,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>37</v>
@@ -32494,7 +32494,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>29</v>
@@ -32577,7 +32577,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>37</v>
@@ -32660,7 +32660,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>73</v>
@@ -32743,7 +32743,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>31</v>
@@ -32826,7 +32826,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>73</v>
@@ -32909,7 +32909,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>78</v>
@@ -32992,7 +32992,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>56</v>
@@ -33075,7 +33075,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>73</v>
@@ -33158,7 +33158,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>31</v>
@@ -33241,7 +33241,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>35</v>
@@ -33324,7 +33324,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>73</v>
@@ -33407,7 +33407,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>23</v>
@@ -33490,7 +33490,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>23</v>
@@ -33573,7 +33573,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>37</v>
@@ -33656,7 +33656,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>43</v>
@@ -33739,7 +33739,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>56</v>
@@ -33822,7 +33822,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>23</v>
@@ -33905,7 +33905,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>47</v>
@@ -33988,7 +33988,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>75</v>
@@ -34071,7 +34071,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>41</v>
@@ -34154,7 +34154,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>56</v>
@@ -34237,7 +34237,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>33</v>
@@ -34320,7 +34320,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>21</v>
@@ -34403,7 +34403,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>78</v>
@@ -34486,7 +34486,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>27</v>
@@ -34569,7 +34569,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>78</v>
@@ -34652,7 +34652,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>27</v>
@@ -34735,7 +34735,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>78</v>
@@ -34818,7 +34818,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>49</v>
@@ -34901,7 +34901,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>27</v>
@@ -34984,7 +34984,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>47</v>
@@ -35067,7 +35067,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>78</v>
@@ -35150,7 +35150,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>21</v>
@@ -35233,7 +35233,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>31</v>
@@ -35316,7 +35316,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>25</v>
@@ -35399,7 +35399,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>37</v>
@@ -35482,7 +35482,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>27</v>
@@ -35565,7 +35565,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>56</v>
@@ -35648,7 +35648,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>75</v>
@@ -35731,7 +35731,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>49</v>
@@ -35814,7 +35814,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>75</v>
@@ -35897,7 +35897,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>21</v>
@@ -35980,7 +35980,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>49</v>
@@ -36063,7 +36063,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>23</v>
@@ -36146,7 +36146,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>56</v>
@@ -36229,7 +36229,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>29</v>
@@ -36312,7 +36312,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>27</v>
@@ -36395,7 +36395,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>31</v>
@@ -36478,7 +36478,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>23</v>
@@ -36561,7 +36561,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>56</v>
@@ -36644,7 +36644,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>41</v>
@@ -36727,7 +36727,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>45</v>
@@ -36810,7 +36810,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>25</v>
@@ -36893,7 +36893,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>35</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>35</v>
@@ -37059,7 +37059,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>75</v>
@@ -37142,7 +37142,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>37</v>
@@ -37225,7 +37225,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>29</v>
@@ -37308,7 +37308,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>73</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>37</v>
@@ -37474,7 +37474,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>43</v>
@@ -37557,7 +37557,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>75</v>
@@ -37640,7 +37640,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>37</v>
@@ -37723,7 +37723,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>23</v>
@@ -37806,7 +37806,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>43</v>
@@ -37889,7 +37889,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>45</v>
@@ -37972,7 +37972,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>41</v>
@@ -38055,7 +38055,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>49</v>
@@ -38138,7 +38138,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>23</v>
@@ -38221,7 +38221,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>45</v>
@@ -38304,7 +38304,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>29</v>
@@ -38387,7 +38387,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>43</v>
@@ -38470,7 +38470,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>35</v>
@@ -38553,7 +38553,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>21</v>
@@ -38636,7 +38636,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>37</v>
@@ -38719,7 +38719,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>21</v>
@@ -38802,7 +38802,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>33</v>
@@ -38885,7 +38885,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>27</v>
@@ -38968,7 +38968,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>21</v>
@@ -39051,7 +39051,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>27</v>
@@ -39134,7 +39134,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>73</v>
@@ -39217,7 +39217,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>49</v>
@@ -39300,7 +39300,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>47</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>75</v>
@@ -39466,7 +39466,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>47</v>
@@ -39549,7 +39549,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>73</v>
@@ -39632,7 +39632,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>45</v>
@@ -39715,7 +39715,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>75</v>
@@ -39798,7 +39798,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>33</v>
@@ -39881,7 +39881,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>49</v>
@@ -39964,7 +39964,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>25</v>
@@ -40047,7 +40047,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>27</v>
@@ -40130,7 +40130,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>31</v>
@@ -40213,7 +40213,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>33</v>
@@ -40296,7 +40296,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>45</v>
@@ -40379,7 +40379,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>78</v>
@@ -40462,7 +40462,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>49</v>
@@ -40545,7 +40545,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>33</v>
@@ -40628,7 +40628,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>31</v>
@@ -40711,7 +40711,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>47</v>
@@ -40794,7 +40794,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>33</v>
@@ -40960,7 +40960,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>31</v>
@@ -41043,7 +41043,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>75</v>
@@ -41126,7 +41126,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>49</v>
@@ -41209,7 +41209,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>73</v>
@@ -41292,7 +41292,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>29</v>
@@ -41375,7 +41375,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>25</v>
@@ -41458,7 +41458,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>29</v>
@@ -41541,7 +41541,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>73</v>
@@ -41624,7 +41624,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>49</v>
@@ -41707,7 +41707,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>41</v>
@@ -41790,7 +41790,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>25</v>
@@ -41873,7 +41873,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>41</v>
@@ -41956,7 +41956,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>35</v>
@@ -42039,7 +42039,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>56</v>
@@ -42122,7 +42122,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>29</v>
@@ -42205,7 +42205,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>35</v>
@@ -42288,7 +42288,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>41</v>
@@ -42371,7 +42371,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>25</v>
@@ -42454,7 +42454,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>25</v>
@@ -42537,7 +42537,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>33</v>
@@ -42620,7 +42620,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>31</v>
